--- a/AutomationPractice/Excels/UIMap.xlsx
+++ b/AutomationPractice/Excels/UIMap.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5286" uniqueCount="1754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5289" uniqueCount="1754">
   <si>
     <t>Control Name</t>
   </si>
@@ -6167,7 +6167,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6267,9 +6267,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="33" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
